--- a/docs/assets/AddUsersandDevicesTemplate.xlsx
+++ b/docs/assets/AddUsersandDevicesTemplate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/vamelend_cisco_com/Documents/Desktop/wbx1/lab/LAB-1251/docs/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{C7AFAEEE-363A-494D-85D2-9E4FCDE7751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9556D813-5EB3-49B3-A28B-3AA8411ACE93}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{C7AFAEEE-363A-494D-85D2-9E4FCDE7751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151AFA02-EAA2-4F20-B3D2-E163E0F08E57}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="640" windowWidth="18570" windowHeight="10640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="START HERE" sheetId="2" r:id="rId1"/>
     <sheet name="AddUsers" sheetId="1" r:id="rId2"/>
-    <sheet name="AddDevices" sheetId="3" r:id="rId3"/>
+    <sheet name="AddDevices" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1204,7 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1228,6 +1228,8 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1236,9 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1296,6 +1295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1721,7 +1724,7 @@
   <dimension ref="A1:BG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1733,27 +1736,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="5" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1831,111 +1834,111 @@
       <c r="Y2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AN2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AO2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AR2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AS2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AT2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AU2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="AV2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AW2" s="19" t="s">
+      <c r="AW2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="AX2" s="19" t="s">
+      <c r="AX2" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AY2" s="19" t="s">
+      <c r="AY2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AZ2" s="18" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BA2" s="18" t="s">
+      <c r="BA2" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BB2" s="18" t="s">
+      <c r="BB2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BC2" s="18" t="s">
+      <c r="BC2" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="BD2" s="18" t="s">
+      <c r="BD2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="BE2" s="18" t="s">
+      <c r="BE2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BF2" s="18" t="s">
+      <c r="BF2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BG2" s="18" t="s">
+      <c r="BG2" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
@@ -2038,7 +2041,7 @@
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -2141,7 +2144,7 @@
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
@@ -2244,7 +2247,7 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
@@ -3513,18 +3516,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
